--- a/v0.7/StructureDefinition-HCXSignatureExtension.xlsx
+++ b/v0.7/StructureDefinition-HCXSignatureExtension.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-project.github.io/hcx-specs/v0.7/StructureDefinition-HCXSignatureExtension.html</t>
+    <t>https://ig.hcxprotocol.io/v0.7/StructureDefinition-HCXSignatureExtension.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/StructureDefinition-HCXSignatureExtension.xlsx
+++ b/v0.7/StructureDefinition-HCXSignatureExtension.xlsx
@@ -247,53 +247,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -644,15 +644,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.16796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="36.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -663,23 +663,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -886,7 +886,7 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -905,25 +905,25 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -974,13 +974,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -989,12 +989,12 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1017,13 +1017,13 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1062,19 +1062,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1086,7 +1086,7 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -1102,10 +1102,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1179,10 +1179,10 @@
         <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
@@ -1204,10 +1204,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1282,7 +1282,7 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
